--- a/data/Subset1_WithDialogActs/Math HK2 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math HK2 transcript.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2491,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3247,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4801,12 +4801,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5011,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5557,12 +5557,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5599,12 +5599,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5683,12 +5683,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6103,12 +6103,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6733,12 +6733,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7367,12 +7367,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7409,12 +7409,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7451,12 +7451,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7577,12 +7577,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8249,12 +8249,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8711,12 +8711,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8879,12 +8879,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8963,12 +8963,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9173,12 +9173,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9677,12 +9677,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9761,12 +9761,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9887,12 +9887,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10013,12 +10013,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10097,12 +10097,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10139,12 +10139,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10223,12 +10223,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10307,12 +10307,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10391,12 +10391,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10685,12 +10685,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11021,12 +11021,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11189,12 +11189,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11273,12 +11273,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11357,12 +11357,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11399,12 +11399,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11651,12 +11651,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11735,12 +11735,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12033,12 +12033,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12285,12 +12285,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12411,12 +12411,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12663,12 +12663,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12705,12 +12705,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13083,12 +13083,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13335,12 +13335,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13503,12 +13503,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14379,12 +14379,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14551,12 +14551,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15349,12 +15349,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15727,12 +15727,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15769,12 +15769,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16063,12 +16063,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16273,12 +16273,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16357,12 +16357,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16567,12 +16567,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16609,12 +16609,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18755,12 +18755,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18923,12 +18923,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19007,12 +19007,12 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19427,12 +19427,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20015,12 +20015,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20225,12 +20225,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20477,12 +20477,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20855,12 +20855,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20897,12 +20897,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20939,12 +20939,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21233,12 +21233,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21275,12 +21275,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21779,12 +21779,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22073,12 +22073,12 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22539,12 +22539,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22665,12 +22665,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22963,12 +22963,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23005,12 +23005,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23173,12 +23173,12 @@
       <c r="H541" t="inlineStr"/>
       <c r="I541" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23509,12 +23509,12 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23723,12 +23723,12 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23975,12 +23975,12 @@
       <c r="H560" t="inlineStr"/>
       <c r="I560" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24941,12 +24941,12 @@
       <c r="H583" t="inlineStr"/>
       <c r="I583" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25403,12 +25403,12 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25529,12 +25529,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25697,12 +25697,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26331,12 +26331,12 @@
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26545,12 +26545,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26801,12 +26801,12 @@
       <c r="H627" t="inlineStr"/>
       <c r="I627" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26927,12 +26927,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27305,12 +27305,12 @@
       <c r="H639" t="inlineStr"/>
       <c r="I639" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27389,12 +27389,12 @@
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27641,12 +27641,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27767,12 +27767,12 @@
       <c r="H650" t="inlineStr"/>
       <c r="I650" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27851,12 +27851,12 @@
       <c r="H652" t="inlineStr"/>
       <c r="I652" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28019,12 +28019,12 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28103,12 +28103,12 @@
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28145,12 +28145,12 @@
       <c r="H659" t="inlineStr"/>
       <c r="I659" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28901,12 +28901,12 @@
       <c r="H677" t="inlineStr"/>
       <c r="I677" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29279,12 +29279,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
